--- a/BackTest/2020-01-21 BackTest XRP.xlsx
+++ b/BackTest/2020-01-21 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,7 +946,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1108507.57347092</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1108507.57347092</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1289562.14877092</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1274623.22117092</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1274623.22117092</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1235118.73371587</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1148682.09321587</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1102518.58731587</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>953749.21491587</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>950739.2163158699</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>971396.7769158699</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>985092.2745435099</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1137804.66274351</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>789554.7993218401</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>665836.02222184</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>753027.76365569</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>668553.4015556899</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>668553.4015556899</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>668553.4015556899</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>683180.2529124699</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>674087.7548124699</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>704241.97101247</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>704227.8408124699</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>500531.96101247</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>500548.99101247</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>500538.99101247</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>485476.82761247</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>496193.5029345599</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>435908.15499896</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>435908.15499896</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>482650.04278694</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>468767.53578694</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>468767.53578694</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>340072.32781779</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>316927.62771779</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>316927.62771779</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>319219.2989177899</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>319219.2989177899</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>334101.0484058</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>334101.0484058</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>337488.9239058</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>334210.31251779</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>334210.31251779</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>337571.03531779</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>335830.61661779</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>304597.17681779</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>304597.17681779</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>304597.17681779</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>304597.17681779</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>283301.1051177899</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>283332.1051177899</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>283321.4552177899</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>284576.4818177899</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>280768.0255177899</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>275961.2595177899</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>275961.2595177899</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>275961.2595177899</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>277076.1478177899</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>220369.4670177899</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>220344.2299177899</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>240465.2900177899</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>251415.3312177899</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>269119.3571177899</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>295105.1191534199</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>294066.0296534199</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>294066.0296534199</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>299816.5672534199</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>281833.2203534199</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>301009.2583534199</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>297175.5080534199</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>297175.5080534199</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>297143.3880534199</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>297143.3880534199</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>297143.3880534199</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>297143.3880534199</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>301143.3880534199</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>293176.3759534199</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>260915.2130489199</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>260915.2130489199</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>260915.2130489199</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>260915.2130489199</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>268174.2414489199</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>266274.2414489199</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>272558.1149489199</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>272558.1149489199</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>276622.5584489199</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>248638.0927489199</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>248636.2027489199</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>252393.2008727399</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>252393.2008727399</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>252393.2008727399</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>266834.9061727399</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>202830.6416727399</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>202830.6416727399</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>205726.8620727399</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>65245.5392727399</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>65245.5392727399</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>87646.10217273991</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>77836.82287273991</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>82891.52587273991</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>82891.52587273991</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>82891.52587273991</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>74970.91327273991</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-128067.2445272601</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-86703.16092726008</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-90089.54255811007</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-90089.54255811007</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-90089.54255811007</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-90089.54255811007</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-45025.20105811007</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-41884.03765811007</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-51921.10245811007</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-51904.98245811007</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-65101.65805811006</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-65095.97175811006</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-66095.79525811007</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>460256.2616418899</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>454770.6596418899</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>449426.8982418899</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>460944.4840418899</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>477462.7389188899</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>477039.2389188899</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>330309.6056188899</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>331322.3967188899</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>339511.2779188899</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>227205.2649188899</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>196123.0472188899</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>196959.6208188899</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>247887.6179188899</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>31011.7648188899</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-299633.0561265501</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>329760.26067345</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>353270.42047345</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>336204.54597345</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>338904.12217345</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>367757.81477345</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>484495.73017345</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>484495.73017345</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>523809.0626398301</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>474206.1575398301</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>381882.9221948301</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>225506.6765854901</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>238570.0745854901</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>238570.0745854901</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>333650.6648854901</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>258921.4092136101</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>191712.23540609</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>100447.24790609</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>110688.75390609</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>118186.51290609</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>114812.40340609</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>102710.78510609</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>120915.68264316</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>40992.31534830002</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>40992.31534830002</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>6764.164248300018</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>64098.32953729002</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>64098.32953729002</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>37825.24113729002</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>32914.36713729001</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>146297.00413729</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>165240.70833422</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>445947.41054512</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>477976.91596517</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>590572.1247451199</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>373240.77420341</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>374543.69536241</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>387134.1618732</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>432009.4275732</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>357514.8801732</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>317280.2653732</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>393427.8700732</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>386300.2862731999</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>401235.1293731999</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>536753.2787732</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>505622.3704732</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-271916.5424037999</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-271439.9540037999</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-388035.0470037999</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-388035.0470037999</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-389079.3799037999</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-389375.8527037998</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-408250.4514037998</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-351684.7805037998</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-364945.3433037998</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-364945.3433037998</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-360197.5246037998</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-360197.5246037998</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-360197.5246037998</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-391137.4796037998</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-418948.4318037998</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-439363.3355037998</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-427863.8148037998</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-427572.5807037998</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-427753.6512037998</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-385393.1747293698</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-385393.1747293698</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-385393.1747293698</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-371879.8306293698</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-382457.1817293698</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-389430.1384293698</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-325863.7800044699</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-350341.6163044699</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-453004.3512659999</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-621076.5713659999</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-621076.5713659999</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-674690.7270659999</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-768071.8702712998</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-627712.8168765998</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-627712.8168765998</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-627712.8168765998</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-612323.9161765998</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-625661.3712014098</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-625661.3712014098</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-651873.0728014099</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-664554.4364014099</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-612741.2167014099</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-615814.2933014099</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-482760.2564014099</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-533188.2665014099</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-617540.37310141</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-617540.37310141</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-617540.37310141</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-617540.37310141</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-979818.94432095</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-984643.6987209499</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-950810.39121642</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-950810.39121642</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-907201.30748688</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-917854.10043733</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-902774.947412</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-902774.947412</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-360662.16358176</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-364470.51248176</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-308718.17468176</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-349737.78168176</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-354549.49848176</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-343163.81218176</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-347124.49268176</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-295917.8582817601</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-80588.99324030007</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-65400945.79947313</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-65424689.68277313</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-65412313.18656657</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -37246,11 +37246,17 @@
         <v>-67045190.13834652</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>262.6</v>
+      </c>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37279,11 +37285,17 @@
         <v>-67446057.92400227</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>262.6</v>
+      </c>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37312,11 +37324,17 @@
         <v>-67171396.64090228</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>262.2</v>
+      </c>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37345,11 +37363,17 @@
         <v>-66913663.94680228</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>262.9</v>
+      </c>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37382,7 +37406,11 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37415,7 +37443,11 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37448,7 +37480,11 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37481,7 +37517,11 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37514,7 +37554,11 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37543,11 +37587,17 @@
         <v>-67237154.05051216</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>261.9</v>
+      </c>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37576,11 +37626,17 @@
         <v>-67138297.81601216</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>262.5</v>
+      </c>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37609,11 +37665,17 @@
         <v>-67132462.65661216</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>262.6</v>
+      </c>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37642,11 +37704,17 @@
         <v>-67111347.99951215</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>262.8</v>
+      </c>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37679,7 +37747,11 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37712,7 +37784,11 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37745,7 +37821,11 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37778,7 +37858,11 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37811,7 +37895,11 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -37844,7 +37932,11 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37877,7 +37969,11 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -37910,7 +38006,11 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -37943,7 +38043,11 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -37976,7 +38080,11 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38009,7 +38117,11 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38038,11 +38150,17 @@
         <v>-67779159.68344964</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>261.7</v>
+      </c>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38075,7 +38193,11 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38104,11 +38226,17 @@
         <v>-67913085.98784964</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>261.4</v>
+      </c>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38137,11 +38265,17 @@
         <v>-67913085.98784964</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>261.4</v>
+      </c>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38170,11 +38304,17 @@
         <v>-68973305.81074964</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>261.4</v>
+      </c>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38203,11 +38343,17 @@
         <v>-68973305.81074964</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>261.1</v>
+      </c>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38236,11 +38382,17 @@
         <v>-68868032.69844964</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>261.1</v>
+      </c>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38269,11 +38421,17 @@
         <v>-69516554.31404965</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>261.3</v>
+      </c>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38302,11 +38460,17 @@
         <v>-70242404.66264965</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>260.6</v>
+      </c>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38335,11 +38499,17 @@
         <v>-70115021.83364965</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>260.5</v>
+      </c>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38370,9 +38540,15 @@
       <c r="H1151" t="n">
         <v>1</v>
       </c>
-      <c r="I1151" t="inlineStr"/>
+      <c r="I1151" t="n">
+        <v>260.6</v>
+      </c>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38403,9 +38579,15 @@
       <c r="H1152" t="n">
         <v>1</v>
       </c>
-      <c r="I1152" t="inlineStr"/>
+      <c r="I1152" t="n">
+        <v>261.1</v>
+      </c>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38434,11 +38616,17 @@
         <v>-70004227.4463767</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>261.1</v>
+      </c>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38467,11 +38655,17 @@
         <v>-69842575.4361767</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>260.9</v>
+      </c>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38500,11 +38694,17 @@
         <v>-69979851.0457767</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>261</v>
+      </c>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38537,7 +38737,11 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38566,11 +38770,17 @@
         <v>-70268237.1769767</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>260.7</v>
+      </c>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38599,11 +38809,17 @@
         <v>-70119731.5258767</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>260.2</v>
+      </c>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38632,11 +38848,17 @@
         <v>-70178256.2432767</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>260.3</v>
+      </c>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38667,9 +38889,15 @@
       <c r="H1160" t="n">
         <v>1</v>
       </c>
-      <c r="I1160" t="inlineStr"/>
+      <c r="I1160" t="n">
+        <v>260.1</v>
+      </c>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38700,9 +38928,15 @@
       <c r="H1161" t="n">
         <v>1</v>
       </c>
-      <c r="I1161" t="inlineStr"/>
+      <c r="I1161" t="n">
+        <v>260.4</v>
+      </c>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38733,9 +38967,15 @@
       <c r="H1162" t="n">
         <v>1</v>
       </c>
-      <c r="I1162" t="inlineStr"/>
+      <c r="I1162" t="n">
+        <v>261.4</v>
+      </c>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38764,11 +39004,15 @@
         <v>-70126046.2434767</v>
       </c>
       <c r="H1163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38797,11 +39041,15 @@
         <v>-70129520.6085767</v>
       </c>
       <c r="H1164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38834,7 +39082,11 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38867,7 +39119,11 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38900,7 +39156,11 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -38933,7 +39193,11 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -38962,11 +39226,17 @@
         <v>-69998286.2828913</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>260.7</v>
+      </c>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -38995,11 +39265,17 @@
         <v>-69998286.2828913</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>260.7</v>
+      </c>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39028,11 +39304,17 @@
         <v>-69971337.33704993</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>260.7</v>
+      </c>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39065,7 +39347,11 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39098,7 +39384,11 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39131,7 +39421,11 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39164,7 +39458,11 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39197,7 +39495,11 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39230,7 +39532,11 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39263,7 +39569,11 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39296,7 +39606,11 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39329,7 +39643,11 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39362,7 +39680,11 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39393,9 +39715,15 @@
       <c r="H1182" t="n">
         <v>1</v>
       </c>
-      <c r="I1182" t="inlineStr"/>
+      <c r="I1182" t="n">
+        <v>259.2</v>
+      </c>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39424,11 +39752,17 @@
         <v>-71158335.2226778</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>259.2</v>
+      </c>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39457,11 +39791,17 @@
         <v>-71321694.12073258</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>259.1</v>
+      </c>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39490,11 +39830,17 @@
         <v>-71420332.11356726</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>258.7</v>
+      </c>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39523,11 +39869,17 @@
         <v>-71102677.54456726</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>258.5</v>
+      </c>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39556,11 +39908,17 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>258.6</v>
+      </c>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39589,11 +39947,17 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>258.9</v>
+      </c>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39622,11 +39986,17 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>258.9</v>
+      </c>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39655,11 +40025,17 @@
         <v>-71127475.22816725</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>258.9</v>
+      </c>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39688,11 +40064,17 @@
         <v>-71430244.81106725</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>258.4</v>
+      </c>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39721,11 +40103,17 @@
         <v>-71575524.70273359</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>257.7</v>
+      </c>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -39754,11 +40142,17 @@
         <v>-71254602.92453359</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>257.6</v>
+      </c>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -39787,11 +40181,17 @@
         <v>-71053364.7056336</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>258.1</v>
+      </c>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -39820,11 +40220,17 @@
         <v>-71198874.24343359</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>258.4</v>
+      </c>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -39853,11 +40259,17 @@
         <v>-71198874.24343359</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>257.9</v>
+      </c>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -39886,15 +40298,17 @@
         <v>-71196090.74693359</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1197" t="n">
         <v>257.9</v>
       </c>
-      <c r="J1197" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="K1197" t="inlineStr"/>
+      <c r="J1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -39923,17 +40337,15 @@
         <v>-70683455.10693359</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1198" t="n">
         <v>258.1</v>
       </c>
-      <c r="J1198" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1198" t="n">
@@ -39964,17 +40376,15 @@
         <v>-70727175.01673359</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1199" t="n">
         <v>258.4</v>
       </c>
-      <c r="J1199" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1199" t="n">
@@ -40005,17 +40415,15 @@
         <v>-70727175.01673359</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1200" t="n">
         <v>258.2</v>
       </c>
-      <c r="J1200" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1200" t="n">
@@ -40046,14 +40454,12 @@
         <v>-70727175.01673359</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1201" t="n">
         <v>258.2</v>
       </c>
-      <c r="J1201" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40087,14 +40493,12 @@
         <v>-70727175.01673359</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1202" t="n">
         <v>258.2</v>
       </c>
-      <c r="J1202" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40128,14 +40532,12 @@
         <v>-70747962.90273359</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1203" t="n">
         <v>258.2</v>
       </c>
-      <c r="J1203" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40169,14 +40571,12 @@
         <v>-70747962.90273359</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1204" t="n">
         <v>258.1</v>
       </c>
-      <c r="J1204" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40210,14 +40610,12 @@
         <v>-70653686.51152526</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1205" t="n">
         <v>258.1</v>
       </c>
-      <c r="J1205" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40251,14 +40649,12 @@
         <v>-70472515.40552525</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1206" t="n">
         <v>258.4</v>
       </c>
-      <c r="J1206" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40292,14 +40688,12 @@
         <v>-70857080.04852526</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1207" t="n">
         <v>259</v>
       </c>
-      <c r="J1207" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40333,14 +40727,12 @@
         <v>-70646026.13472526</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1208" t="n">
         <v>258.8</v>
       </c>
-      <c r="J1208" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40374,14 +40766,12 @@
         <v>-70099231.02772526</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1209" t="n">
         <v>259.3</v>
       </c>
-      <c r="J1209" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40415,14 +40805,12 @@
         <v>-69942144.62122527</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1210" t="n">
         <v>259.7</v>
       </c>
-      <c r="J1210" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40456,14 +40844,12 @@
         <v>-69942144.62122527</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1211" t="n">
         <v>260.3</v>
       </c>
-      <c r="J1211" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40497,14 +40883,12 @@
         <v>-69732947.83382526</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1212" t="n">
         <v>260.3</v>
       </c>
-      <c r="J1212" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40541,9 +40925,7 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40580,9 +40962,7 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40619,9 +40999,7 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40658,9 +41036,7 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40697,9 +41073,7 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40736,9 +41110,7 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40772,14 +41144,10 @@
         <v>-69638016.55340688</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="J1219" t="n">
-        <v>257.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40816,9 +41184,7 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40855,9 +41221,7 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40894,9 +41258,7 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40930,12 +41292,10 @@
         <v>-69042397.64313732</v>
       </c>
       <c r="H1223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40969,12 +41329,10 @@
         <v>-68817132.24193732</v>
       </c>
       <c r="H1224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41008,12 +41366,10 @@
         <v>-69044663.75871356</v>
       </c>
       <c r="H1225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41047,12 +41403,10 @@
         <v>-68970276.76981355</v>
       </c>
       <c r="H1226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41086,12 +41440,10 @@
         <v>-68871966.98605323</v>
       </c>
       <c r="H1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41125,12 +41477,10 @@
         <v>-68871966.98605323</v>
       </c>
       <c r="H1228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41164,12 +41514,10 @@
         <v>-68715731.2873636</v>
       </c>
       <c r="H1229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41203,12 +41551,10 @@
         <v>-68828705.59814236</v>
       </c>
       <c r="H1230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41242,12 +41588,10 @@
         <v>-68745281.94424236</v>
       </c>
       <c r="H1231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41281,12 +41625,10 @@
         <v>-68818388.34804235</v>
       </c>
       <c r="H1232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41323,9 +41665,7 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41362,9 +41702,7 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41401,9 +41739,7 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41440,9 +41776,7 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41479,9 +41813,7 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41518,9 +41850,7 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41557,9 +41887,7 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41596,9 +41924,7 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41635,9 +41961,7 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41674,9 +41998,7 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41713,9 +42035,7 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41752,9 +42072,7 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41791,9 +42109,7 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41830,9 +42146,7 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41866,12 +42180,12 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41905,12 +42219,12 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41944,12 +42258,12 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41983,14 +42297,12 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1250" t="n">
         <v>262.4</v>
       </c>
-      <c r="J1250" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42024,12 +42336,12 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42063,12 +42375,12 @@
         <v>-68981436.49077567</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42102,12 +42414,12 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>262.3</v>
+      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42141,12 +42453,12 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42180,12 +42492,12 @@
         <v>-69011843.96740621</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42219,12 +42531,12 @@
         <v>-69013807.02440621</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>262.3</v>
+      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42258,12 +42570,12 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>262</v>
+      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42297,12 +42609,12 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>257.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42339,9 +42651,7 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42378,9 +42688,7 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42417,9 +42725,7 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42456,9 +42762,7 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42495,9 +42799,7 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42534,9 +42836,7 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42573,9 +42873,7 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42612,9 +42910,7 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42651,9 +42947,7 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>257.9</v>
-      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42665,6 +42959,6 @@
       <c r="M1267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest XRP.xlsx
+++ b/BackTest/2020-01-21 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1177,7 +1177,7 @@
         <v>1274623.22117092</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1235118.73371587</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1148682.09321587</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1102518.58731587</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>953749.21491587</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>950739.2163158699</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>971396.7769158699</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>985092.2745435099</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1137804.66274351</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>789554.7993218401</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>665836.02222184</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>753027.76365569</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>668553.4015556899</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>668553.4015556899</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>668553.4015556899</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>683180.2529124699</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>674087.7548124699</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>704241.97101247</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>704227.8408124699</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>435908.15499896</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>482650.04278694</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>468767.53578694</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>340072.32781779</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>316927.62771779</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>316927.62771779</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>319219.2989177899</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>319219.2989177899</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>334101.0484058</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>334101.0484058</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>337488.9239058</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>334210.31251779</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>304597.17681779</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>304597.17681779</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>304597.17681779</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>304597.17681779</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>283301.1051177899</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>283332.1051177899</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>283321.4552177899</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>284576.4818177899</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>280768.0255177899</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>275961.2595177899</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>275961.2595177899</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>275961.2595177899</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>277076.1478177899</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>220369.4670177899</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>220344.2299177899</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>240465.2900177899</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>251415.3312177899</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>269119.3571177899</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>295105.1191534199</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>294066.0296534199</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>294066.0296534199</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>299816.5672534199</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>281833.2203534199</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>301009.2583534199</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>297175.5080534199</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>297175.5080534199</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>297143.3880534199</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>297143.3880534199</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>297143.3880534199</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>297143.3880534199</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>301143.3880534199</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>293176.3759534199</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>260915.2130489199</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>260915.2130489199</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>260915.2130489199</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>260915.2130489199</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>268174.2414489199</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>266274.2414489199</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>272558.1149489199</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>272558.1149489199</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>276622.5584489199</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>248638.0927489199</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>248636.2027489199</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>252393.2008727399</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>252393.2008727399</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>252393.2008727399</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>266834.9061727399</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>202830.6416727399</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>202830.6416727399</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>205726.8620727399</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>147827.0264727399</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>65245.5392727399</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>65245.5392727399</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>87646.10217273991</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>77836.82287273991</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>82891.52587273991</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>82891.52587273991</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>82891.52587273991</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>74970.91327273991</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-128067.2445272601</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-86703.16092726008</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-90089.54255811007</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-90089.54255811007</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-90089.54255811007</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-90089.54255811007</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-45025.20105811007</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-41884.03765811007</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-51921.10245811007</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-51904.98245811007</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-65101.65805811006</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-65095.97175811006</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-66095.79525811007</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>460944.4840418899</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>477039.2389188899</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-299633.0561265501</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>329760.26067345</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>353270.42047345</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>336204.54597345</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>338904.12217345</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>367757.81477345</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>484495.73017345</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>484495.73017345</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>523809.0626398301</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>474206.1575398301</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>258921.4092136101</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>191712.23540609</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>100447.24790609</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>110688.75390609</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>118186.51290609</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>114812.40340609</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>102710.78510609</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>165240.70833422</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>373240.77420341</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>374543.69536241</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>387134.1618732</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>432009.4275732</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>357514.8801732</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>317280.2653732</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>393427.8700732</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>386300.2862731999</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>401235.1293731999</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>536753.2787732</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>505622.3704732</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-271916.5424037999</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-388035.0470037999</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-388035.0470037999</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-389079.3799037999</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-389375.8527037998</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-408250.4514037998</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-351684.7805037998</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-364945.3433037998</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-364945.3433037998</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-360197.5246037998</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-360197.5246037998</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-360197.5246037998</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-391137.4796037998</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-418948.4318037998</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-439363.3355037998</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-427863.8148037998</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-427572.5807037998</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-427753.6512037998</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-385393.1747293698</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-453004.3512659999</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-621076.5713659999</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-621076.5713659999</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-674690.7270659999</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-768071.8702712998</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-627712.8168765998</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-627712.8168765998</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-627712.8168765998</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-612323.9161765998</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-625661.3712014098</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-625661.3712014098</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-651873.0728014099</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-664554.4364014099</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-612741.2167014099</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-615814.2933014099</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-482760.2564014099</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-533188.2665014099</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-617540.37310141</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-617540.37310141</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-617540.37310141</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-617540.37310141</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-979818.94432095</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-984643.6987209499</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-950810.39121642</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-950810.39121642</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-907201.30748688</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-902774.947412</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-902774.947412</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-360662.16358176</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-364470.51248176</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-308718.17468176</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-349737.78168176</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-354549.49848176</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-343163.81218176</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-347124.49268176</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-295917.8582817601</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-80588.99324030007</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-65400945.79947313</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-65424689.68277313</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-65412313.18656657</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-65396829.84682915</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-65453671.72292915</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-65442584.03642915</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-65427754.92052915</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-65370750.85822915</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-65385202.73022915</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-65286087.13537651</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -37246,1502 +37246,1304 @@
         <v>-67045190.13834652</v>
       </c>
       <c r="H1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
+      <c r="J1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr"/>
+      <c r="L1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="n">
         <v>262.6</v>
       </c>
-      <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
+      <c r="C1118" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>263</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>262</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>400867.78565575</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>-67446057.92400227</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
+      <c r="J1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr"/>
+      <c r="L1118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>262.9</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>262.9</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>262</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>274661.2831</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>-67171396.64090228</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
+      <c r="J1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr"/>
+      <c r="L1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>262.9</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>262.9</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>257732.6941</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>-66913663.94680228</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
+      <c r="J1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr"/>
+      <c r="L1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>3715.97235058</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>-66917379.91915286</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr"/>
+      <c r="L1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>13838.8705593</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>-66931218.78971216</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr"/>
+      <c r="L1122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>263</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>263</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>23121.3387</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>-66954340.12841216</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
+      <c r="J1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr"/>
+      <c r="L1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>94409.6667</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>-66859930.46171216</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
+      <c r="L1124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>263</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>263</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>384091.6114</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>-67244022.07311216</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr"/>
+      <c r="L1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>6868.0226</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>-67237154.05051216</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1126" t="inlineStr"/>
+      <c r="J1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr"/>
+      <c r="L1126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>98856.23450000001</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>-67138297.81601216</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr"/>
+      <c r="L1127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>5835.1594</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>-67132462.65661216</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr"/>
+      <c r="L1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>263</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>263</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>21114.6571</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>-67111347.99951215</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
+      <c r="J1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr"/>
+      <c r="L1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>263</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>263</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>19327.5174</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>-67130675.51691215</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
+      <c r="J1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr"/>
+      <c r="L1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>263</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>263</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>263</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>3993.9655</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>-67130675.51691215</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr"/>
+      <c r="L1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>263</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>263</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>53928.5271</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>-67130675.51691215</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
+      <c r="J1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr"/>
+      <c r="L1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>1188.047</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>-67129487.46991214</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
+      <c r="J1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr"/>
+      <c r="L1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>77161.35279999999</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>-67206648.82271214</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1134" t="inlineStr"/>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr"/>
+      <c r="L1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>90450.95913752</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>-67297099.78184965</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
+      <c r="J1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr"/>
+      <c r="L1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>70879.1327</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>-67297099.78184965</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
+      <c r="J1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr"/>
+      <c r="L1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>54337.5832</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>-67351437.36504965</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
+      <c r="L1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>262.1</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>262.1</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>35667.5158</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>-67387104.88084964</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
+      <c r="J1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr"/>
+      <c r="L1138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>262.1</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>262.3</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>222073.8766</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>-67609178.75744964</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr"/>
+      <c r="L1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>262.1</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>169980.926</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>-67779159.68344964</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
+      <c r="L1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>14567.5407</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>-67779159.68344964</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
+      <c r="L1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>133926.3044</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>-67913085.98784964</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
+      <c r="L1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>372923.103</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>-67913085.98784964</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1143" t="inlineStr"/>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
+      <c r="L1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>323107.6667</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>-67913085.98784964</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
+      <c r="L1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>1060219.8229</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>-68973305.81074964</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
+      <c r="L1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>22840.557</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>-68973305.81074964</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
+      <c r="L1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>105273.1123</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>-68868032.69844964</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr"/>
+      <c r="L1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>648521.6156</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>-69516554.31404965</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr"/>
+      <c r="L1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>725850.3486</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>-70242404.66264965</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
+      <c r="J1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr"/>
+      <c r="L1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>127382.829</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>-70115021.83364965</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1150" t="inlineStr"/>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr"/>
+      <c r="L1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>168477.50250168</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>-69946544.33114797</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
+      <c r="J1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr"/>
+      <c r="L1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>12168.0622</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>-69946544.33114797</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
+      <c r="J1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr"/>
+      <c r="L1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>57683.11522873</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>-70004227.4463767</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
+      <c r="J1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr"/>
+      <c r="L1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>261</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>161652.0102</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>-69842575.4361767</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1154" t="inlineStr"/>
+      <c r="J1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr"/>
+      <c r="L1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>261</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>137275.6096</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>-69979851.0457767</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1155" t="inlineStr"/>
+      <c r="J1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr"/>
+      <c r="L1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>261</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>261</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>33607.513</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>-69979851.0457767</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="J1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" s="1" t="n">
-        <v>1116</v>
-      </c>
-      <c r="B1118" t="n">
-        <v>262.6</v>
-      </c>
-      <c r="C1118" t="n">
-        <v>262.2</v>
-      </c>
-      <c r="D1118" t="n">
-        <v>263</v>
-      </c>
-      <c r="E1118" t="n">
-        <v>262</v>
-      </c>
-      <c r="F1118" t="n">
-        <v>400867.78565575</v>
-      </c>
-      <c r="G1118" t="n">
-        <v>-67446057.92400227</v>
-      </c>
-      <c r="H1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1118" t="n">
-        <v>262.6</v>
-      </c>
-      <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" s="1" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B1119" t="n">
-        <v>262.2</v>
-      </c>
-      <c r="C1119" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="D1119" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="E1119" t="n">
-        <v>262</v>
-      </c>
-      <c r="F1119" t="n">
-        <v>274661.2831</v>
-      </c>
-      <c r="G1119" t="n">
-        <v>-67171396.64090228</v>
-      </c>
-      <c r="H1119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1119" t="n">
-        <v>262.2</v>
-      </c>
-      <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" s="1" t="n">
-        <v>1118</v>
-      </c>
-      <c r="B1120" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="C1120" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="D1120" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="E1120" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="F1120" t="n">
-        <v>257732.6941</v>
-      </c>
-      <c r="G1120" t="n">
-        <v>-66913663.94680228</v>
-      </c>
-      <c r="H1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" s="1" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B1121" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="C1121" t="n">
-        <v>263.5</v>
-      </c>
-      <c r="D1121" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="E1121" t="n">
-        <v>263.5</v>
-      </c>
-      <c r="F1121" t="n">
-        <v>3715.97235058</v>
-      </c>
-      <c r="G1121" t="n">
-        <v>-66917379.91915286</v>
-      </c>
-      <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" s="1" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B1122" t="n">
-        <v>263.5</v>
-      </c>
-      <c r="C1122" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="D1122" t="n">
-        <v>263.5</v>
-      </c>
-      <c r="E1122" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="F1122" t="n">
-        <v>13838.8705593</v>
-      </c>
-      <c r="G1122" t="n">
-        <v>-66931218.78971216</v>
-      </c>
-      <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" s="1" t="n">
-        <v>1121</v>
-      </c>
-      <c r="B1123" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="C1123" t="n">
-        <v>263</v>
-      </c>
-      <c r="D1123" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="E1123" t="n">
-        <v>263</v>
-      </c>
-      <c r="F1123" t="n">
-        <v>23121.3387</v>
-      </c>
-      <c r="G1123" t="n">
-        <v>-66954340.12841216</v>
-      </c>
-      <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" s="1" t="n">
-        <v>1122</v>
-      </c>
-      <c r="B1124" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="C1124" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="D1124" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>262.6</v>
-      </c>
-      <c r="F1124" t="n">
-        <v>94409.6667</v>
-      </c>
-      <c r="G1124" t="n">
-        <v>-66859930.46171216</v>
-      </c>
-      <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" s="1" t="n">
-        <v>1123</v>
-      </c>
-      <c r="B1125" t="n">
-        <v>263</v>
-      </c>
-      <c r="C1125" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="D1125" t="n">
-        <v>263</v>
-      </c>
-      <c r="E1125" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="F1125" t="n">
-        <v>384091.6114</v>
-      </c>
-      <c r="G1125" t="n">
-        <v>-67244022.07311216</v>
-      </c>
-      <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" s="1" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B1126" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="C1126" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="D1126" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="E1126" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="F1126" t="n">
-        <v>6868.0226</v>
-      </c>
-      <c r="G1126" t="n">
-        <v>-67237154.05051216</v>
-      </c>
-      <c r="H1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1126" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" s="1" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B1127" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="C1127" t="n">
-        <v>262.6</v>
-      </c>
-      <c r="D1127" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="E1127" t="n">
-        <v>262.6</v>
-      </c>
-      <c r="F1127" t="n">
-        <v>98856.23450000001</v>
-      </c>
-      <c r="G1127" t="n">
-        <v>-67138297.81601216</v>
-      </c>
-      <c r="H1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1127" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" s="1" t="n">
-        <v>1126</v>
-      </c>
-      <c r="B1128" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="C1128" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="D1128" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="E1128" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="F1128" t="n">
-        <v>5835.1594</v>
-      </c>
-      <c r="G1128" t="n">
-        <v>-67132462.65661216</v>
-      </c>
-      <c r="H1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1128" t="n">
-        <v>262.6</v>
-      </c>
-      <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" s="1" t="n">
-        <v>1127</v>
-      </c>
-      <c r="B1129" t="n">
-        <v>263</v>
-      </c>
-      <c r="C1129" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="D1129" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="E1129" t="n">
-        <v>263</v>
-      </c>
-      <c r="F1129" t="n">
-        <v>21114.6571</v>
-      </c>
-      <c r="G1129" t="n">
-        <v>-67111347.99951215</v>
-      </c>
-      <c r="H1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1129" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" s="1" t="n">
-        <v>1128</v>
-      </c>
-      <c r="B1130" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="C1130" t="n">
-        <v>263</v>
-      </c>
-      <c r="D1130" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="E1130" t="n">
-        <v>263</v>
-      </c>
-      <c r="F1130" t="n">
-        <v>19327.5174</v>
-      </c>
-      <c r="G1130" t="n">
-        <v>-67130675.51691215</v>
-      </c>
-      <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" s="1" t="n">
-        <v>1129</v>
-      </c>
-      <c r="B1131" t="n">
-        <v>263</v>
-      </c>
-      <c r="C1131" t="n">
-        <v>263</v>
-      </c>
-      <c r="D1131" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="E1131" t="n">
-        <v>263</v>
-      </c>
-      <c r="F1131" t="n">
-        <v>3993.9655</v>
-      </c>
-      <c r="G1131" t="n">
-        <v>-67130675.51691215</v>
-      </c>
-      <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" s="1" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B1132" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="C1132" t="n">
-        <v>263</v>
-      </c>
-      <c r="D1132" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="E1132" t="n">
-        <v>263</v>
-      </c>
-      <c r="F1132" t="n">
-        <v>53928.5271</v>
-      </c>
-      <c r="G1132" t="n">
-        <v>-67130675.51691215</v>
-      </c>
-      <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" s="1" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B1133" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="C1133" t="n">
-        <v>263.3</v>
-      </c>
-      <c r="D1133" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="E1133" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="F1133" t="n">
-        <v>1188.047</v>
-      </c>
-      <c r="G1133" t="n">
-        <v>-67129487.46991214</v>
-      </c>
-      <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" s="1" t="n">
-        <v>1132</v>
-      </c>
-      <c r="B1134" t="n">
-        <v>263.3</v>
-      </c>
-      <c r="C1134" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="D1134" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="E1134" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="F1134" t="n">
-        <v>77161.35279999999</v>
-      </c>
-      <c r="G1134" t="n">
-        <v>-67206648.82271214</v>
-      </c>
-      <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" s="1" t="n">
-        <v>1133</v>
-      </c>
-      <c r="B1135" t="n">
-        <v>263.3</v>
-      </c>
-      <c r="C1135" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="D1135" t="n">
-        <v>263.3</v>
-      </c>
-      <c r="E1135" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="F1135" t="n">
-        <v>90450.95913752</v>
-      </c>
-      <c r="G1135" t="n">
-        <v>-67297099.78184965</v>
-      </c>
-      <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" s="1" t="n">
-        <v>1134</v>
-      </c>
-      <c r="B1136" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="C1136" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="D1136" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="E1136" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="F1136" t="n">
-        <v>70879.1327</v>
-      </c>
-      <c r="G1136" t="n">
-        <v>-67297099.78184965</v>
-      </c>
-      <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" s="1" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B1137" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="C1137" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="D1137" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="E1137" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>54337.5832</v>
-      </c>
-      <c r="G1137" t="n">
-        <v>-67351437.36504965</v>
-      </c>
-      <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" s="1" t="n">
-        <v>1136</v>
-      </c>
-      <c r="B1138" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="C1138" t="n">
-        <v>262.1</v>
-      </c>
-      <c r="D1138" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="E1138" t="n">
-        <v>262.1</v>
-      </c>
-      <c r="F1138" t="n">
-        <v>35667.5158</v>
-      </c>
-      <c r="G1138" t="n">
-        <v>-67387104.88084964</v>
-      </c>
-      <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" s="1" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B1139" t="n">
-        <v>262.1</v>
-      </c>
-      <c r="C1139" t="n">
-        <v>261.8</v>
-      </c>
-      <c r="D1139" t="n">
-        <v>262.3</v>
-      </c>
-      <c r="E1139" t="n">
-        <v>261.8</v>
-      </c>
-      <c r="F1139" t="n">
-        <v>222073.8766</v>
-      </c>
-      <c r="G1139" t="n">
-        <v>-67609178.75744964</v>
-      </c>
-      <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" s="1" t="n">
-        <v>1138</v>
-      </c>
-      <c r="B1140" t="n">
-        <v>261.8</v>
-      </c>
-      <c r="C1140" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="D1140" t="n">
-        <v>262.1</v>
-      </c>
-      <c r="E1140" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="F1140" t="n">
-        <v>169980.926</v>
-      </c>
-      <c r="G1140" t="n">
-        <v>-67779159.68344964</v>
-      </c>
-      <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" s="1" t="n">
-        <v>1139</v>
-      </c>
-      <c r="B1141" t="n">
-        <v>262.2</v>
-      </c>
-      <c r="C1141" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="D1141" t="n">
-        <v>262.2</v>
-      </c>
-      <c r="E1141" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="F1141" t="n">
-        <v>14567.5407</v>
-      </c>
-      <c r="G1141" t="n">
-        <v>-67779159.68344964</v>
-      </c>
-      <c r="H1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1141" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" s="1" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B1142" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="C1142" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="D1142" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="E1142" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="F1142" t="n">
-        <v>133926.3044</v>
-      </c>
-      <c r="G1142" t="n">
-        <v>-67913085.98784964</v>
-      </c>
-      <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" s="1" t="n">
-        <v>1141</v>
-      </c>
-      <c r="B1143" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="C1143" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="D1143" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="E1143" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="F1143" t="n">
-        <v>372923.103</v>
-      </c>
-      <c r="G1143" t="n">
-        <v>-67913085.98784964</v>
-      </c>
-      <c r="H1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1143" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" s="1" t="n">
-        <v>1142</v>
-      </c>
-      <c r="B1144" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="C1144" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="D1144" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="E1144" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="F1144" t="n">
-        <v>323107.6667</v>
-      </c>
-      <c r="G1144" t="n">
-        <v>-67913085.98784964</v>
-      </c>
-      <c r="H1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1144" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" s="1" t="n">
-        <v>1143</v>
-      </c>
-      <c r="B1145" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="C1145" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1145" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="E1145" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1145" t="n">
-        <v>1060219.8229</v>
-      </c>
-      <c r="G1145" t="n">
-        <v>-68973305.81074964</v>
-      </c>
-      <c r="H1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1145" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" s="1" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B1146" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="C1146" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1146" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="E1146" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="F1146" t="n">
-        <v>22840.557</v>
-      </c>
-      <c r="G1146" t="n">
-        <v>-68973305.81074964</v>
-      </c>
-      <c r="H1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" s="1" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B1147" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="C1147" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="D1147" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="E1147" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1147" t="n">
-        <v>105273.1123</v>
-      </c>
-      <c r="G1147" t="n">
-        <v>-68868032.69844964</v>
-      </c>
-      <c r="H1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" s="1" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B1148" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="C1148" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="D1148" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="E1148" t="n">
-        <v>260.1</v>
-      </c>
-      <c r="F1148" t="n">
-        <v>648521.6156</v>
-      </c>
-      <c r="G1148" t="n">
-        <v>-69516554.31404965</v>
-      </c>
-      <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" s="1" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B1149" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="C1149" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="D1149" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="E1149" t="n">
-        <v>260.1</v>
-      </c>
-      <c r="F1149" t="n">
-        <v>725850.3486</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>-70242404.66264965</v>
-      </c>
-      <c r="H1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1149" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" s="1" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B1150" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="C1150" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="D1150" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="E1150" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="F1150" t="n">
-        <v>127382.829</v>
-      </c>
-      <c r="G1150" t="n">
-        <v>-70115021.83364965</v>
-      </c>
-      <c r="H1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1150" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" s="1" t="n">
-        <v>1149</v>
-      </c>
-      <c r="B1151" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="C1151" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1151" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="E1151" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="F1151" t="n">
-        <v>168477.50250168</v>
-      </c>
-      <c r="G1151" t="n">
-        <v>-69946544.33114797</v>
-      </c>
-      <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" s="1" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B1152" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="C1152" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1152" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="E1152" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1152" t="n">
-        <v>12168.0622</v>
-      </c>
-      <c r="G1152" t="n">
-        <v>-69946544.33114797</v>
-      </c>
-      <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" s="1" t="n">
-        <v>1151</v>
-      </c>
-      <c r="B1153" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="C1153" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="D1153" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="E1153" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="F1153" t="n">
-        <v>57683.11522873</v>
-      </c>
-      <c r="G1153" t="n">
-        <v>-70004227.4463767</v>
-      </c>
-      <c r="H1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" s="1" t="n">
-        <v>1152</v>
-      </c>
-      <c r="B1154" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="C1154" t="n">
-        <v>261</v>
-      </c>
-      <c r="D1154" t="n">
-        <v>261</v>
-      </c>
-      <c r="E1154" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="F1154" t="n">
-        <v>161652.0102</v>
-      </c>
-      <c r="G1154" t="n">
-        <v>-69842575.4361767</v>
-      </c>
-      <c r="H1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1154" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" s="1" t="n">
-        <v>1153</v>
-      </c>
-      <c r="B1155" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="C1155" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="D1155" t="n">
-        <v>261</v>
-      </c>
-      <c r="E1155" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="F1155" t="n">
-        <v>137275.6096</v>
-      </c>
-      <c r="G1155" t="n">
-        <v>-69979851.0457767</v>
-      </c>
-      <c r="H1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1155" t="n">
-        <v>261</v>
-      </c>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" s="1" t="n">
-        <v>1154</v>
-      </c>
-      <c r="B1156" t="n">
-        <v>261</v>
-      </c>
-      <c r="C1156" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="D1156" t="n">
-        <v>261</v>
-      </c>
-      <c r="E1156" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="F1156" t="n">
-        <v>33607.513</v>
-      </c>
-      <c r="G1156" t="n">
-        <v>-69979851.0457767</v>
-      </c>
-      <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38770,11 +38572,9 @@
         <v>-70268237.1769767</v>
       </c>
       <c r="H1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>260.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
@@ -38809,11 +38609,9 @@
         <v>-70119731.5258767</v>
       </c>
       <c r="H1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>260.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
@@ -38848,11 +38646,9 @@
         <v>-70178256.2432767</v>
       </c>
       <c r="H1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>260.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
@@ -38926,11 +38722,9 @@
         <v>-69974111.07277671</v>
       </c>
       <c r="H1161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1161" t="n">
-        <v>260.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
@@ -38965,11 +38759,9 @@
         <v>-69866302.81697671</v>
       </c>
       <c r="H1162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1162" t="n">
-        <v>261.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
@@ -39226,11 +39018,9 @@
         <v>-69998286.2828913</v>
       </c>
       <c r="H1169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1169" t="n">
-        <v>260.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39265,11 +39055,9 @@
         <v>-69998286.2828913</v>
       </c>
       <c r="H1170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1170" t="n">
-        <v>260.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39304,11 +39092,9 @@
         <v>-69971337.33704993</v>
       </c>
       <c r="H1171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1171" t="n">
-        <v>260.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39380,9 +39166,11 @@
         <v>-70046607.93704993</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>260.6</v>
+      </c>
       <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39639,9 +39427,11 @@
         <v>-70597809.40606345</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>260</v>
+      </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
@@ -39676,9 +39466,11 @@
         <v>-71036532.38777779</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>259.7</v>
+      </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
@@ -40727,11 +40519,9 @@
         <v>-70646026.13472526</v>
       </c>
       <c r="H1208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>258.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -40766,11 +40556,9 @@
         <v>-70099231.02772526</v>
       </c>
       <c r="H1209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>259.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
@@ -40805,11 +40593,9 @@
         <v>-69942144.62122527</v>
       </c>
       <c r="H1210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>259.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -40844,11 +40630,9 @@
         <v>-69942144.62122527</v>
       </c>
       <c r="H1211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>260.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -40883,11 +40667,9 @@
         <v>-69732947.83382526</v>
       </c>
       <c r="H1212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1212" t="n">
-        <v>260.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
@@ -41662,18 +41444,16 @@
         <v>-69042043.74074236</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1233" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1233" t="inlineStr"/>
       <c r="M1233" t="inlineStr"/>
     </row>
     <row r="1234">
@@ -41699,15 +41479,11 @@
         <v>-69108228.52534236</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41736,15 +41512,11 @@
         <v>-69048788.83404236</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41773,15 +41545,11 @@
         <v>-69167645.93685475</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41810,15 +41578,11 @@
         <v>-68846515.00935476</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41847,15 +41611,11 @@
         <v>-68907207.87535475</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41888,11 +41648,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41925,11 +41681,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41962,11 +41714,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41995,15 +41743,11 @@
         <v>-68933657.56055301</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42032,15 +41776,11 @@
         <v>-68937946.58915302</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42069,15 +41809,11 @@
         <v>-68938456.58915302</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42106,15 +41842,11 @@
         <v>-68937510.69067568</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42143,15 +41875,11 @@
         <v>-68941108.79087567</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42180,17 +41908,11 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>262.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42219,17 +41941,11 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>262.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42258,17 +41974,11 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>262.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42297,17 +42007,11 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>262.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42336,17 +42040,11 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>262.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42375,17 +42073,11 @@
         <v>-68981436.49077567</v>
       </c>
       <c r="H1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>262.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42414,17 +42106,11 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>262.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42453,17 +42139,11 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>261.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42492,17 +42172,11 @@
         <v>-69011843.96740621</v>
       </c>
       <c r="H1255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>261.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42531,17 +42205,11 @@
         <v>-69013807.02440621</v>
       </c>
       <c r="H1256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>262.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -42570,17 +42238,11 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>262</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -42609,17 +42271,11 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1258" t="n">
-        <v>262.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42648,15 +42304,11 @@
         <v>-69034794.56450622</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42685,15 +42337,11 @@
         <v>-68972660.27750622</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42722,15 +42370,11 @@
         <v>-68801212.24340622</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42759,15 +42403,11 @@
         <v>-68764355.22410622</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42796,15 +42436,11 @@
         <v>-68764440.58920622</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42833,15 +42469,11 @@
         <v>-68817339.63770622</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42870,15 +42502,11 @@
         <v>-68903581.47440623</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42907,15 +42535,11 @@
         <v>-68903581.47440623</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42944,21 +42568,17 @@
         <v>-68901107.08634461</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
       <c r="M1267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest XRP.xlsx
+++ b/BackTest/2020-01-21 BackTest XRP.xlsx
@@ -451,7 +451,7 @@
         <v>836273.88585262</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>836273.88585262</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>912980.73437092</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>934018.10997092</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>900245.6194709201</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>909807.96537092</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1086759.42967092</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1034894.20897092</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1056656.13687092</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1108507.57347092</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1108507.57347092</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1289562.14877092</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1274623.22117092</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1274623.22117092</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1235118.73371587</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1148682.09321587</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1102518.58731587</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>953749.21491587</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>950739.2163158699</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>971396.7769158699</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>985092.2745435099</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1137804.66274351</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>789554.7993218401</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>665836.02222184</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>753027.76365569</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>812129.42665569</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>800836.39745569</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>767967.0647556899</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>803629.7815556899</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>334210.31251779</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>335830.61661779</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>335419.78931779</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>334256.56791779</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>266834.9061727399</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>247547.8774727399</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>235399.1895727399</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>15477.01474188993</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>15477.01474188993</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1260.265241889929</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>17734.58094188993</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>17734.58094188993</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>17734.58094188993</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>17870.55514188993</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>8573.286541889931</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>70072.36304188994</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>125573.6330418899</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>300113.9210418899</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>288086.2256418899</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>368720.2335418899</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>383087.3071418899</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>383087.3071418899</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>383087.3071418899</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>460256.2616418899</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>454770.6596418899</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>449426.8982418899</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>460944.4840418899</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>477462.7389188899</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>477039.2389188899</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>330309.6056188899</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>331322.3967188899</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>339511.2779188899</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>227205.2649188899</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>195723.0472188899</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>196123.0472188899</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>196959.6208188899</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>196959.6208188899</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>188626.2558188899</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>247887.6179188899</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>181712.6016188899</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>31011.7648188899</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>31011.7648188899</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-3123.510481110097</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-15687.9634811101</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-15687.9634811101</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-14778.5769811101</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-14923.9899811101</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-9804.085281110096</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-21504.4231811101</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-28940.3570811101</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>42006.11053521991</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>42006.11053521991</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-8645.611164780094</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-6406.655161800094</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-7450.745461800094</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>198125.0683188899</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>198125.0683188899</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>221849.5587734499</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>221849.5587734499</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>183562.7509734499</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>497811.0349734499</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>406511.5610734499</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>603680.0514734499</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>719225.2050734499</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-253283.7793265501</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-299633.0561265501</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>484495.73017345</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>484495.73017345</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>523809.0626398301</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>474206.1575398301</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>354287.2105398301</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>372736.9481398301</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>380344.4084948301</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>383090.2639948301</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>381882.9221948301</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>225506.6765854901</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>238715.8105854901</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>238570.0745854901</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>238570.0745854901</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>333650.6648854901</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>331978.1518083801</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>331978.1518083801</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>331978.1518083801</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>258921.4092136101</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>114812.40340609</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>102710.78510609</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>120915.68264316</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>40992.31534830002</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>40992.31534830002</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>6764.164248300018</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>64098.32953729002</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>37825.24113729002</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>32914.36713729001</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>27037.01313729001</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>146297.00413729</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>191146.49554935</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>153814.57384935</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>153814.57384935</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>270967.35554935</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>274879.18824935</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>268463.74804935</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>348686.95234935</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>460900.27104935</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>439904.45274512</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>439904.45274512</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>439904.45274512</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>506142.15454512</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>479599.7179451199</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>479599.7179451199</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>445947.41054512</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>477976.91596517</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>590572.1247451199</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>373240.77420341</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>374543.69536241</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>387134.1618732</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>432009.4275732</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>357514.8801732</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>317280.2653732</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>393427.8700732</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>386300.2862731999</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>401235.1293731999</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>536753.2787732</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>505622.3704732</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>449691.2937732</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>531309.3502732001</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>422652.7467732001</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>486310.9133201201</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>456894.0390201201</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>456894.0390201201</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>440731.7319201201</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>349515.4176201201</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>349515.4176201201</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>367145.3266976701</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>367145.3266976701</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>284857.6127976701</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>297039.7438976701</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>297039.7438976701</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>330091.3615650701</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>291352.82806507</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>291352.82806507</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>291352.82806507</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>305413.00946507</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>305413.00946507</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>266981.7294650701</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>356095.50935166</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>356095.50935166</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>297172.4274643901</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>142685.1003375201</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>165273.3159375201</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>148725.7603375201</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>103254.6000375201</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>123749.2810375201</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>123749.2810375201</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>123749.2810375201</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>123749.2810375201</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>119566.8628375201</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>112603.4381375201</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>96382.04353752006</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>114931.6753375201</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>81356.43623752007</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-329698.9655624799</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-251431.8984624799</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-261464.6231222899</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-100856.7692344399</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-48166.50868209991</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-55862.46888209991</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-71185.77958209992</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-60716.03258209991</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-60716.03258209991</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-51688.88328209992</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-104562.7261820999</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-249631.4142656799</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-246550.1236037999</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-246776.9856037999</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-264986.1263037999</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-271916.5424037999</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-271916.5424037999</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-271916.5424037999</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-271439.9540037999</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-388035.0470037999</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-65396829.84682915</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-65453671.72292915</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-65442584.03642915</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-65427754.92052915</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-65370750.85822915</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-65385202.73022915</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-65286087.13537651</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -38533,17 +38533,11 @@
         <v>-69979851.0457767</v>
       </c>
       <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>260.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38576,11 +38570,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38613,11 +38603,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38650,11 +38636,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38683,17 +38665,11 @@
         <v>-70110383.4465767</v>
       </c>
       <c r="H1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1160" t="n">
-        <v>260.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38726,11 +38702,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38763,11 +38735,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38800,11 +38768,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38837,11 +38801,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38874,11 +38834,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38911,11 +38867,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38948,11 +38900,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -38985,11 +38933,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39022,11 +38966,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39059,11 +38999,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39096,11 +39032,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39133,11 +39065,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39166,17 +39094,11 @@
         <v>-70046607.93704993</v>
       </c>
       <c r="H1173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1173" t="n">
-        <v>260.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39209,11 +39131,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39246,11 +39164,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39283,11 +39197,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39320,11 +39230,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39357,11 +39263,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39394,11 +39296,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39427,17 +39325,11 @@
         <v>-70597809.40606345</v>
       </c>
       <c r="H1180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1180" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39466,17 +39358,11 @@
         <v>-71036532.38777779</v>
       </c>
       <c r="H1181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1181" t="n">
-        <v>259.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39505,17 +39391,11 @@
         <v>-71036532.38777779</v>
       </c>
       <c r="H1182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1182" t="n">
-        <v>259.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39544,17 +39424,11 @@
         <v>-71158335.2226778</v>
       </c>
       <c r="H1183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1183" t="n">
-        <v>259.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39583,17 +39457,11 @@
         <v>-71321694.12073258</v>
       </c>
       <c r="H1184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1184" t="n">
-        <v>259.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39622,17 +39490,11 @@
         <v>-71420332.11356726</v>
       </c>
       <c r="H1185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1185" t="n">
-        <v>258.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39661,17 +39523,11 @@
         <v>-71102677.54456726</v>
       </c>
       <c r="H1186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1186" t="n">
-        <v>258.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39700,17 +39556,11 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1187" t="n">
-        <v>258.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39739,17 +39589,11 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1188" t="n">
-        <v>258.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39778,17 +39622,11 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1189" t="n">
-        <v>258.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39817,17 +39655,11 @@
         <v>-71127475.22816725</v>
       </c>
       <c r="H1190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1190" t="n">
-        <v>258.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39856,17 +39688,11 @@
         <v>-71430244.81106725</v>
       </c>
       <c r="H1191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1191" t="n">
-        <v>258.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39895,17 +39721,11 @@
         <v>-71575524.70273359</v>
       </c>
       <c r="H1192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1192" t="n">
-        <v>257.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -39942,7 +39762,7 @@
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1193" t="n">
@@ -40519,9 +40339,11 @@
         <v>-70646026.13472526</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>258.8</v>
+      </c>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -40556,9 +40378,11 @@
         <v>-70099231.02772526</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>259.3</v>
+      </c>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
@@ -40593,9 +40417,11 @@
         <v>-69942144.62122527</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>259.7</v>
+      </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -40630,9 +40456,11 @@
         <v>-69942144.62122527</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>260.3</v>
+      </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -41444,16 +41272,18 @@
         <v>-69042043.74074236</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1233" t="inlineStr"/>
+      <c r="L1233" t="n">
+        <v>1</v>
+      </c>
       <c r="M1233" t="inlineStr"/>
     </row>
     <row r="1234">
@@ -41479,11 +41309,15 @@
         <v>-69108228.52534236</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41512,11 +41346,15 @@
         <v>-69048788.83404236</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41545,11 +41383,15 @@
         <v>-69167645.93685475</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41578,11 +41420,15 @@
         <v>-68846515.00935476</v>
       </c>
       <c r="H1237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41611,11 +41457,15 @@
         <v>-68907207.87535475</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41648,7 +41498,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41681,7 +41535,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41714,7 +41572,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41743,11 +41605,15 @@
         <v>-68933657.56055301</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41776,11 +41642,15 @@
         <v>-68937946.58915302</v>
       </c>
       <c r="H1243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41809,11 +41679,15 @@
         <v>-68938456.58915302</v>
       </c>
       <c r="H1244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41842,11 +41716,15 @@
         <v>-68937510.69067568</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41875,11 +41753,15 @@
         <v>-68941108.79087567</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41908,11 +41790,15 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41941,11 +41827,15 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41974,11 +41864,15 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42007,11 +41901,15 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42040,11 +41938,15 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42073,11 +41975,15 @@
         <v>-68981436.49077567</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42106,11 +42012,15 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42139,11 +42049,15 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42172,11 +42086,15 @@
         <v>-69011843.96740621</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42205,11 +42123,15 @@
         <v>-69013807.02440621</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -42238,11 +42160,15 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -42271,11 +42197,15 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42304,11 +42234,15 @@
         <v>-69034794.56450622</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42337,11 +42271,15 @@
         <v>-68972660.27750622</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42370,11 +42308,15 @@
         <v>-68801212.24340622</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42403,11 +42345,15 @@
         <v>-68764355.22410622</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42436,11 +42382,15 @@
         <v>-68764440.58920622</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42469,11 +42419,15 @@
         <v>-68817339.63770622</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42502,11 +42456,15 @@
         <v>-68903581.47440623</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42535,11 +42493,15 @@
         <v>-68903581.47440623</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42568,11 +42530,15 @@
         <v>-68901107.08634461</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
